--- a/OPcodes.xlsx
+++ b/OPcodes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t xml:space="preserve">ASSEMBLY</t>
   </si>
@@ -34,76 +34,91 @@
     <t xml:space="preserve">enB</t>
   </si>
   <si>
-    <t xml:space="preserve">selA0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selB0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selB1</t>
+    <t xml:space="preserve">selA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selB</t>
   </si>
   <si>
     <t xml:space="preserve">loadPC</t>
   </si>
   <si>
-    <t xml:space="preserve">selALU2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selALU1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selALU0</t>
+    <t xml:space="preserve">SelALU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
   </si>
   <si>
     <t xml:space="preserve">MOVAL</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">ZERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD</t>
   </si>
   <si>
     <t xml:space="preserve">MOVBL</t>
   </si>
   <si>
-    <t xml:space="preserve">PUSHB</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOV(REG)A   </t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOV(REG)B</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVA(REG)</t>
   </si>
   <si>
+    <t xml:space="preserve">RAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVB(REG)</t>
   </si>
   <si>
     <t xml:space="preserve">CMPAL</t>
   </si>
   <si>
+    <t xml:space="preserve">SUB</t>
+  </si>
+  <si>
     <t xml:space="preserve">JEQ label</t>
   </si>
   <si>
+    <t xml:space="preserve">Nan</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANDL</t>
   </si>
   <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADD(REG)</t>
   </si>
   <si>
     <t xml:space="preserve">SHR(REG)A</t>
   </si>
   <si>
+    <t xml:space="preserve">SHR</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHL(REG)A</t>
   </si>
   <si>
+    <t xml:space="preserve">SHL</t>
+  </si>
+  <si>
     <t xml:space="preserve">JMP label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POPB</t>
   </si>
 </sst>
 </file>
@@ -203,10 +218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,66 +242,52 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -294,197 +295,311 @@
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0" t="n">
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>0</v>
+      <c r="E11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/OPcodes.xlsx
+++ b/OPcodes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t xml:space="preserve">ASSEMBLY</t>
   </si>
@@ -119,6 +119,84 @@
   </si>
   <si>
     <t xml:space="preserve">JMP label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOV(REG)A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0...1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000010001000000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000001001000000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000000010000001'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000000000100001'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000010001100000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000001001100000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000000011000010'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000000010110000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000010011000100'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000000010100001'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000000010101101'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000000010101111'</t>
   </si>
 </sst>
 </file>
@@ -133,6 +211,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -218,37 +297,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -257,140 +336,140 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -416,137 +495,137 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -572,34 +651,240 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/OPcodes.xlsx
+++ b/OPcodes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t xml:space="preserve">ASSEMBLY</t>
   </si>
@@ -163,6 +163,12 @@
     <t xml:space="preserve">0...1100</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVA,B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000010000100000’</t>
+  </si>
+  <si>
     <t xml:space="preserve">'00000000010001000000'</t>
   </si>
   <si>
@@ -184,19 +190,43 @@
     <t xml:space="preserve">'00000000000011000010'</t>
   </si>
   <si>
+    <t xml:space="preserve">'10000000000010110000'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000010011000100'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000000010100001'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000000010101101'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000000010101111'</t>
+  </si>
+  <si>
     <t xml:space="preserve">'00000000000010110000'</t>
   </si>
   <si>
-    <t xml:space="preserve">'00000000010011000100'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'00000000000010100001'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'00000000000010101101'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'00000000000010101111'</t>
+    <t xml:space="preserve">ADDA,LIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB A,LIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000010011000010’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVB,A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000001010000000’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDA,(REG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'00000000010011100000'</t>
   </si>
 </sst>
 </file>
@@ -211,7 +241,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -297,10 +326,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -782,12 +811,20 @@
         <v>46</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,7 +832,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,7 +840,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,7 +856,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,7 +872,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +880,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,7 +888,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,7 +912,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +920,36 @@
         <v>32</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
